--- a/Hamish.xlsx
+++ b/Hamish.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Unreal Projects\SHU24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D96E69CD-FCDC-445E-8F34-17C2D2097B2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31DB639-39C5-4B47-B6AA-0A270B36CD7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{0F8ADF09-B9B7-4C3C-881C-28938A32358D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{0F8ADF09-B9B7-4C3C-881C-28938A32358D}"/>
   </bookViews>
   <sheets>
     <sheet name="Time" sheetId="1" r:id="rId1"/>
@@ -5461,7 +5461,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Hamish 1</a:t>
+              <a:t>Hamish 4</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -14255,7 +14255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428721D3-F140-4E6B-ABC3-FEBF53D7996F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
@@ -14306,8 +14306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C5EB33-6653-4908-9A66-7E3441ADE480}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
